--- a/PowerBI/aula05/BaseFuncionarios.xlsx
+++ b/PowerBI/aula05/BaseFuncionarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Downloads\01-22 - Bases de Dados para Praticar-20240810T030929Z-001\01-22 - Bases de Dados para Praticar\2. RH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\aula05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29778B45-0DA3-4B3B-8E63-FC393BCABF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCD1BBF-6E9D-4DF2-840F-63B342F2EEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2122,7 +2122,7 @@
   <dimension ref="A1:X495"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S2" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
@@ -2134,7 +2134,7 @@
     <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" customWidth="1"/>
